--- a/data/trans_orig/P1427-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73A10814-BB6A-4663-8145-453F7CD835C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45CA7CEC-C294-4A3F-8806-33F1F742263F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E5DE67D3-DB5B-4027-859B-68A7B3E1CB2C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B367857A-E86A-4631-B0C7-D73D7CD4974D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="286">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -79,22 +79,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,4%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>5,63%</t>
+    <t>6,21%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>98,5%</t>
   </si>
   <si>
-    <t>94,6%</t>
+    <t>94,53%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -112,16 +112,16 @@
     <t>98,19%</t>
   </si>
   <si>
-    <t>94,37%</t>
+    <t>93,79%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -133,793 +133,769 @@
     <t>2,32%</t>
   </si>
   <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
     <t>1,31%</t>
   </si>
   <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A3C02E-C833-424C-B730-F3074F6D8379}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8E70BE-5C1B-4597-A4A6-D90032876D14}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1643,10 +1619,10 @@
         <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1637,13 @@
         <v>574053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>534</v>
@@ -1676,13 +1652,13 @@
         <v>566195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
@@ -1691,13 +1667,13 @@
         <v>1140248</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,7 +1729,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1765,13 +1741,13 @@
         <v>20960</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -1780,13 +1756,13 @@
         <v>27713</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -1795,13 +1771,13 @@
         <v>48673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1792,13 @@
         <v>996987</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>914</v>
@@ -1831,13 +1807,13 @@
         <v>1001260</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1833</v>
@@ -1846,13 +1822,13 @@
         <v>1998247</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,7 +1884,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1920,13 +1896,13 @@
         <v>10242</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -1935,13 +1911,13 @@
         <v>16979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -1950,13 +1926,13 @@
         <v>27221</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,13 +1947,13 @@
         <v>747381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>690</v>
@@ -1986,13 +1962,13 @@
         <v>760195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1369</v>
@@ -2001,13 +1977,13 @@
         <v>1507576</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,7 +2039,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2075,13 +2051,13 @@
         <v>21388</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -2090,13 +2066,13 @@
         <v>28387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -2105,13 +2081,13 @@
         <v>49775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2102,13 @@
         <v>926351</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>976</v>
@@ -2141,13 +2117,13 @@
         <v>1023514</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1867</v>
@@ -2156,13 +2132,13 @@
         <v>1949865</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2206,13 @@
         <v>67982</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -2245,13 +2221,13 @@
         <v>94052</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -2263,10 +2239,10 @@
         <v>30</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2257,13 @@
         <v>3358797</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>3211</v>
@@ -2296,28 +2272,28 @@
         <v>3461046</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>6359</v>
       </c>
       <c r="N20" s="7">
-        <v>6819843</v>
+        <v>6819844</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,7 +2335,7 @@
         <v>6505</v>
       </c>
       <c r="N21" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -2373,7 +2349,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA77AB64-1800-4A9E-9DBD-747030C1D84B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2FB6A1-8297-4D5B-B1D5-909727FE9AB4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2411,7 +2387,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2518,13 +2494,13 @@
         <v>1957</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2533,13 +2509,13 @@
         <v>3029</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2548,13 +2524,13 @@
         <v>4985</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,10 +2545,10 @@
         <v>114589</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -2584,13 +2560,13 @@
         <v>110331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M5" s="7">
         <v>223</v>
@@ -2599,10 +2575,10 @@
         <v>224921</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>130</v>
@@ -2673,13 +2649,13 @@
         <v>7098</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -2688,13 +2664,13 @@
         <v>13302</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -2703,13 +2679,13 @@
         <v>20400</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2700,13 @@
         <v>551156</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
         <v>539</v>
@@ -2739,13 +2715,13 @@
         <v>546177</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>1070</v>
@@ -2754,13 +2730,13 @@
         <v>1097333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,7 +2792,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2828,13 +2804,13 @@
         <v>8120</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2858,13 +2834,13 @@
         <v>25311</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2855,13 @@
         <v>1014311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7">
         <v>962</v>
@@ -2897,10 +2873,10 @@
         <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
         <v>1904</v>
@@ -2909,13 +2885,13 @@
         <v>2040033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,7 +2947,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2983,13 +2959,13 @@
         <v>7181</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2998,13 +2974,13 @@
         <v>16169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -3013,13 +2989,13 @@
         <v>23349</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,10 +3010,10 @@
         <v>752371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>161</v>
@@ -3049,7 +3025,7 @@
         <v>768842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>162</v>
@@ -3126,7 +3102,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3138,13 +3114,13 @@
         <v>11032</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3153,13 +3129,13 @@
         <v>30775</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -3168,13 +3144,13 @@
         <v>41807</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3165,13 @@
         <v>926535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>933</v>
@@ -3204,13 +3180,13 @@
         <v>1013004</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>1853</v>
@@ -3219,13 +3195,13 @@
         <v>1939539</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3269,13 @@
         <v>35388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -3308,13 +3284,13 @@
         <v>80465</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M19" s="7">
         <v>108</v>
@@ -3323,13 +3299,13 @@
         <v>115853</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3320,13 @@
         <v>3358962</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H20" s="7">
         <v>3268</v>
@@ -3359,13 +3335,13 @@
         <v>3464077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="M20" s="7">
         <v>6461</v>
@@ -3374,13 +3350,13 @@
         <v>6823039</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,7 +3412,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3457,7 +3433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73CE32B-8F8A-4DC1-B6B9-2220AC92380F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92079662-CD6F-4FC0-B660-0536778FD082}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3474,7 +3450,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3581,13 +3557,13 @@
         <v>4460</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -3596,13 +3572,13 @@
         <v>11743</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -3611,13 +3587,13 @@
         <v>16203</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3608,13 @@
         <v>97522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -3647,13 +3623,13 @@
         <v>118990</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>323</v>
@@ -3662,13 +3638,13 @@
         <v>216512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3712,13 @@
         <v>26312</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -3751,13 +3727,13 @@
         <v>36087</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -3766,13 +3742,13 @@
         <v>62399</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3763,13 @@
         <v>523511</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
         <v>910</v>
@@ -3802,13 +3778,13 @@
         <v>555804</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>1476</v>
@@ -3817,13 +3793,13 @@
         <v>1079315</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,7 +3855,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3891,13 +3867,13 @@
         <v>32198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -3906,13 +3882,13 @@
         <v>33820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -3921,13 +3897,13 @@
         <v>66018</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3918,13 @@
         <v>1007050</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
         <v>1452</v>
@@ -3957,13 +3933,13 @@
         <v>1024472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7">
         <v>2365</v>
@@ -3972,13 +3948,13 @@
         <v>2031522</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,7 +4010,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4046,13 +4022,13 @@
         <v>17599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -4061,13 +4037,13 @@
         <v>36741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -4076,13 +4052,13 @@
         <v>54341</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4073,13 @@
         <v>706213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>988</v>
@@ -4112,13 +4088,13 @@
         <v>836910</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>1639</v>
@@ -4127,13 +4103,13 @@
         <v>1543121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,7 +4165,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4201,13 +4177,13 @@
         <v>32008</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>263</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -4216,13 +4192,13 @@
         <v>55505</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -4231,13 +4207,13 @@
         <v>87514</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4228,13 @@
         <v>933395</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>1481</v>
@@ -4267,13 +4243,13 @@
         <v>1091439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>2442</v>
@@ -4282,13 +4258,13 @@
         <v>2024833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4332,13 @@
         <v>112577</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>312</v>
@@ -4371,13 +4347,13 @@
         <v>173896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>483</v>
@@ -4386,13 +4362,13 @@
         <v>286474</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4383,13 @@
         <v>3267691</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>5045</v>
@@ -4422,13 +4398,13 @@
         <v>3627614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>8245</v>
@@ -4437,13 +4413,13 @@
         <v>6895304</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>291</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,7 +4475,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1427-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45CA7CEC-C294-4A3F-8806-33F1F742263F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{400AA984-663F-4089-A0D5-99A0CC549AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B367857A-E86A-4631-B0C7-D73D7CD4974D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE025129-DDBE-4EF4-9797-CE27EE399533}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="298">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -79,817 +79,853 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
   </si>
   <si>
     <t>95,57%</t>
@@ -1307,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8E70BE-5C1B-4597-A4A6-D90032876D14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C83D4A-899F-4C83-8BDA-DB1FA2975D03}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1619,10 +1655,10 @@
         <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1637,13 +1673,13 @@
         <v>574053</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>534</v>
@@ -1652,13 +1688,13 @@
         <v>566195</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
@@ -1667,13 +1703,13 @@
         <v>1140248</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1729,7 +1765,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1741,13 +1777,13 @@
         <v>20960</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -1756,13 +1792,13 @@
         <v>27713</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -1771,13 +1807,13 @@
         <v>48673</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,13 +1828,13 @@
         <v>996987</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>914</v>
@@ -1807,13 +1843,13 @@
         <v>1001260</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1833</v>
@@ -1822,13 +1858,13 @@
         <v>1998247</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,7 +1920,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1896,13 +1932,13 @@
         <v>10242</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -1911,13 +1947,13 @@
         <v>16979</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -1926,13 +1962,13 @@
         <v>27221</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,13 +1983,13 @@
         <v>747381</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>690</v>
@@ -1962,13 +1998,13 @@
         <v>760195</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1369</v>
@@ -1977,13 +2013,13 @@
         <v>1507576</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,7 +2075,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2051,13 +2087,13 @@
         <v>21388</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -2066,13 +2102,13 @@
         <v>28387</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -2081,13 +2117,13 @@
         <v>49775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,13 +2138,13 @@
         <v>926351</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>976</v>
@@ -2117,13 +2153,13 @@
         <v>1023514</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>1867</v>
@@ -2132,13 +2168,13 @@
         <v>1949865</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,13 +2242,13 @@
         <v>67982</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -2221,13 +2257,13 @@
         <v>94052</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -2239,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2293,13 @@
         <v>3358797</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>3211</v>
@@ -2272,28 +2308,28 @@
         <v>3461046</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>6359</v>
       </c>
       <c r="N20" s="7">
-        <v>6819844</v>
+        <v>6819843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,7 +2371,7 @@
         <v>6505</v>
       </c>
       <c r="N21" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -2370,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2FB6A1-8297-4D5B-B1D5-909727FE9AB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49523462-5A1C-47A1-8F21-2C0C62423614}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2527,10 +2563,10 @@
         <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,10 +2581,10 @@
         <v>114589</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -2560,13 +2596,13 @@
         <v>110331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>223</v>
@@ -2575,13 +2611,13 @@
         <v>224921</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2685,13 @@
         <v>7098</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -2664,13 +2700,13 @@
         <v>13302</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -2679,13 +2715,13 @@
         <v>20400</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2736,13 @@
         <v>551156</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>539</v>
@@ -2715,13 +2751,13 @@
         <v>546177</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>1070</v>
@@ -2730,13 +2766,13 @@
         <v>1097333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,7 +2828,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2807,10 +2843,10 @@
         <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2822,10 +2858,10 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -2834,13 +2870,13 @@
         <v>25311</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2891,13 @@
         <v>1014311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>962</v>
@@ -2873,10 +2909,10 @@
         <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>1904</v>
@@ -2885,13 +2921,13 @@
         <v>2040033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,7 +2983,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2959,13 +2995,13 @@
         <v>7181</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2974,13 +3010,13 @@
         <v>16169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -2989,13 +3025,13 @@
         <v>23349</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3046,13 @@
         <v>752371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="H14" s="7">
         <v>722</v>
@@ -3025,13 +3061,13 @@
         <v>768842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>1411</v>
@@ -3040,13 +3076,13 @@
         <v>1521214</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,7 +3138,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3114,13 +3150,13 @@
         <v>11032</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3129,13 +3165,13 @@
         <v>30775</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -3144,13 +3180,13 @@
         <v>41807</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3201,13 @@
         <v>926535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
         <v>933</v>
@@ -3180,13 +3216,13 @@
         <v>1013004</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
         <v>1853</v>
@@ -3195,13 +3231,13 @@
         <v>1939539</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3305,13 @@
         <v>35388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -3284,13 +3320,13 @@
         <v>80465</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M19" s="7">
         <v>108</v>
@@ -3299,13 +3335,13 @@
         <v>115853</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3356,13 @@
         <v>3358962</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H20" s="7">
         <v>3268</v>
@@ -3335,13 +3371,13 @@
         <v>3464077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="M20" s="7">
         <v>6461</v>
@@ -3350,13 +3386,13 @@
         <v>6823039</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,7 +3469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92079662-CD6F-4FC0-B660-0536778FD082}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4A6D5C-4C1E-496A-BE93-164E403784A5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3450,7 +3486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3557,13 +3593,13 @@
         <v>4460</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -3572,13 +3608,13 @@
         <v>11743</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -3587,13 +3623,13 @@
         <v>16203</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3644,13 @@
         <v>97522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -3623,13 +3659,13 @@
         <v>118990</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
         <v>323</v>
@@ -3638,13 +3674,13 @@
         <v>216512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3748,13 @@
         <v>26312</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -3727,13 +3763,13 @@
         <v>36087</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -3742,13 +3778,13 @@
         <v>62399</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3799,13 @@
         <v>523511</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>910</v>
@@ -3778,13 +3814,13 @@
         <v>555804</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>1476</v>
@@ -3793,13 +3829,13 @@
         <v>1079315</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,7 +3891,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3867,13 +3903,13 @@
         <v>32198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -3882,13 +3918,13 @@
         <v>33820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -3897,13 +3933,13 @@
         <v>66018</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3954,13 @@
         <v>1007050</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>1452</v>
@@ -3933,13 +3969,13 @@
         <v>1024472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>2365</v>
@@ -3948,13 +3984,13 @@
         <v>2031522</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,7 +4046,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4022,13 +4058,13 @@
         <v>17599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -4037,13 +4073,13 @@
         <v>36741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -4052,13 +4088,13 @@
         <v>54341</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4109,13 @@
         <v>706213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
         <v>988</v>
@@ -4088,13 +4124,13 @@
         <v>836910</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>1639</v>
@@ -4103,13 +4139,13 @@
         <v>1543121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,7 +4201,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4177,13 +4213,13 @@
         <v>32008</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -4192,13 +4228,13 @@
         <v>55505</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -4207,13 +4243,13 @@
         <v>87514</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4264,13 @@
         <v>933395</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>1481</v>
@@ -4243,13 +4279,13 @@
         <v>1091439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>2442</v>
@@ -4258,13 +4294,13 @@
         <v>2024833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,13 +4368,13 @@
         <v>112577</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H19" s="7">
         <v>312</v>
@@ -4347,13 +4383,13 @@
         <v>173896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="M19" s="7">
         <v>483</v>
@@ -4362,13 +4398,13 @@
         <v>286474</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4419,13 @@
         <v>3267691</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="H20" s="7">
         <v>5045</v>
@@ -4398,13 +4434,13 @@
         <v>3627614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="M20" s="7">
         <v>8245</v>
@@ -4413,13 +4449,13 @@
         <v>6895304</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1427-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{400AA984-663F-4089-A0D5-99A0CC549AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBEFCBE7-95D1-4F45-8F49-ACBFDCC914F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE025129-DDBE-4EF4-9797-CE27EE399533}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39AD5B77-1553-4CD0-959A-EBFF6F6D0772}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="294">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,5%</t>
@@ -79,532 +79,529 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>94,68%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,32%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>97,09%</t>
+    <t>97,11%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>1,67%</t>
@@ -613,31 +610,28 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>2,01%</t>
+    <t>2,03%</t>
   </si>
   <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>99,25%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>97,99%</t>
+    <t>97,97%</t>
   </si>
   <si>
     <t>98,61%</t>
@@ -649,178 +643,169 @@
     <t>4,37%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
+    <t>9,77%</t>
   </si>
   <si>
     <t>95,63%</t>
   </si>
   <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>91,02%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>90,23%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>95,21%</t>
   </si>
   <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>93,9%</t>
   </si>
   <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>96,3%</t>
   </si>
   <si>
     <t>98,45%</t>
@@ -829,31 +814,40 @@
     <t>95,79%</t>
   </si>
   <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
+    <t>95,68%</t>
+  </si>
+  <si>
     <t>3,32%</t>
   </si>
   <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>3,36%</t>
+    <t>3,43%</t>
   </si>
   <si>
     <t>5,43%</t>
@@ -862,13 +856,19 @@
     <t>96,68%</t>
   </si>
   <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>95,86%</t>
@@ -877,34 +877,28 @@
     <t>94,57%</t>
   </si>
   <si>
-    <t>96,64%</t>
+    <t>96,57%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
     <t>3,89%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
     <t>5,33%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>96,67%</t>
@@ -913,25 +907,19 @@
     <t>96,11%</t>
   </si>
   <si>
-    <t>97,17%</t>
-  </si>
-  <si>
     <t>95,43%</t>
   </si>
   <si>
     <t>94,67%</t>
   </si>
   <si>
-    <t>96,06%</t>
-  </si>
-  <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C83D4A-899F-4C83-8BDA-DB1FA2975D03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE9249D-D0FF-4997-AA93-A89A460BC535}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2117,10 +2105,10 @@
         <v>49775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>92</v>
@@ -2168,13 +2156,13 @@
         <v>1949865</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2245,13 @@
         <v>94052</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -2275,10 +2263,10 @@
         <v>30</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,13 +2281,13 @@
         <v>3358797</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>3211</v>
@@ -2308,13 +2296,13 @@
         <v>3461046</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>6359</v>
@@ -2326,10 +2314,10 @@
         <v>38</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,7 +2373,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2406,7 +2394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49523462-5A1C-47A1-8F21-2C0C62423614}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C1E3F9-ABF1-4177-BE3C-77C7DF042BC5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2423,7 +2411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2530,13 +2518,13 @@
         <v>1957</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2545,13 +2533,13 @@
         <v>3029</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2560,13 +2548,13 @@
         <v>4985</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,10 +2569,10 @@
         <v>114589</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -2596,13 +2584,13 @@
         <v>110331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M5" s="7">
         <v>223</v>
@@ -2611,13 +2599,13 @@
         <v>224921</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2673,13 @@
         <v>7098</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -2703,10 +2691,10 @@
         <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -2715,13 +2703,13 @@
         <v>20400</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2724,13 @@
         <v>551156</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>539</v>
@@ -2754,10 +2742,10 @@
         <v>62</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
         <v>1070</v>
@@ -2766,13 +2754,13 @@
         <v>1097333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2828,13 @@
         <v>8120</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2858,10 +2846,10 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -2870,13 +2858,13 @@
         <v>25311</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2879,13 @@
         <v>1014311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
         <v>962</v>
@@ -2909,10 +2897,10 @@
         <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M11" s="7">
         <v>1904</v>
@@ -2921,13 +2909,13 @@
         <v>2040033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2983,13 @@
         <v>7181</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3013,10 +3001,10 @@
         <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -3025,13 +3013,13 @@
         <v>23349</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3034,13 @@
         <v>752371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>722</v>
@@ -3064,10 +3052,10 @@
         <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
         <v>1411</v>
@@ -3076,13 +3064,13 @@
         <v>1521214</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3138,13 @@
         <v>11032</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3165,13 +3153,13 @@
         <v>30775</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -3180,13 +3168,13 @@
         <v>41807</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,7 +3189,7 @@
         <v>926535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>176</v>
@@ -3237,7 +3225,7 @@
         <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3299,7 @@
         <v>184</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -3320,13 +3308,13 @@
         <v>80465</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M19" s="7">
         <v>108</v>
@@ -3335,13 +3323,13 @@
         <v>115853</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3344,13 @@
         <v>3358962</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H20" s="7">
         <v>3268</v>
@@ -3371,13 +3359,13 @@
         <v>3464077</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M20" s="7">
         <v>6461</v>
@@ -3386,13 +3374,13 @@
         <v>6823039</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,7 +3436,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3469,7 +3457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4A6D5C-4C1E-496A-BE93-164E403784A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF6E00A-4BAF-4C0B-962B-6FA3B7FE74C1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3486,7 +3474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3593,13 +3581,13 @@
         <v>4460</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -3608,13 +3596,13 @@
         <v>11743</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -3623,13 +3611,13 @@
         <v>16203</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3632,13 @@
         <v>97522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -3659,13 +3647,13 @@
         <v>118990</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>323</v>
@@ -3674,13 +3662,13 @@
         <v>216512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3736,13 @@
         <v>26312</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -3763,13 +3751,13 @@
         <v>36087</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -3778,13 +3766,13 @@
         <v>62399</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3787,13 @@
         <v>523511</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>910</v>
@@ -3814,13 +3802,13 @@
         <v>555804</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>1476</v>
@@ -3829,13 +3817,13 @@
         <v>1079315</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3891,13 @@
         <v>32198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -3921,10 +3909,10 @@
         <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -3933,13 +3921,13 @@
         <v>66018</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3942,13 @@
         <v>1007050</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>1452</v>
@@ -3972,10 +3960,10 @@
         <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
         <v>2365</v>
@@ -3984,13 +3972,13 @@
         <v>2031522</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4046,13 @@
         <v>17599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -4073,13 +4061,13 @@
         <v>36741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -4088,13 +4076,13 @@
         <v>54341</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4097,13 @@
         <v>706213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>988</v>
@@ -4124,13 +4112,13 @@
         <v>836910</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>1639</v>
@@ -4139,13 +4127,13 @@
         <v>1543121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4201,13 @@
         <v>32008</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -4228,13 +4216,13 @@
         <v>55505</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -4243,13 +4231,13 @@
         <v>87514</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4252,13 @@
         <v>933395</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>1481</v>
@@ -4371,10 +4359,10 @@
         <v>280</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H19" s="7">
         <v>312</v>
@@ -4383,13 +4371,13 @@
         <v>173896</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M19" s="7">
         <v>483</v>
@@ -4398,13 +4386,13 @@
         <v>286474</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4407,13 @@
         <v>3267691</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="H20" s="7">
         <v>5045</v>
@@ -4434,13 +4422,13 @@
         <v>3627614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="M20" s="7">
         <v>8245</v>
@@ -4449,13 +4437,13 @@
         <v>6895304</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,7 +4499,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1427-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBEFCBE7-95D1-4F45-8F49-ACBFDCC914F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B90F584B-AD38-48EA-B452-120E12BDC3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39AD5B77-1553-4CD0-959A-EBFF6F6D0772}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{272D623B-3D82-4E36-92FB-BC5983EE7A23}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="259">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,859 +67,754 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>5,63%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>95,11%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
   </si>
 </sst>
 </file>
@@ -1331,8 +1226,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE9249D-D0FF-4997-AA93-A89A460BC535}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F6DE96-490F-48FD-AF80-5F56568E892A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1449,10 +1344,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>1741</v>
+        <v>15391</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1464,85 +1359,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>2023</v>
+        <v>20973</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>3764</v>
+        <v>36365</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>120</v>
+        <v>659</v>
       </c>
       <c r="D5" s="7">
-        <v>114024</v>
+        <v>688078</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>97</v>
+        <v>631</v>
       </c>
       <c r="I5" s="7">
-        <v>109882</v>
+        <v>676077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>217</v>
+        <v>1290</v>
       </c>
       <c r="N5" s="7">
-        <v>223906</v>
+        <v>1364154</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,153 +1446,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>13651</v>
+        <v>20960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>18950</v>
+        <v>27713</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N7" s="7">
-        <v>32601</v>
+        <v>48673</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>539</v>
+        <v>919</v>
       </c>
       <c r="D8" s="7">
-        <v>574053</v>
+        <v>996987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>534</v>
+        <v>914</v>
       </c>
       <c r="I8" s="7">
-        <v>566195</v>
+        <v>1001260</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1073</v>
+        <v>1833</v>
       </c>
       <c r="N8" s="7">
-        <v>1140248</v>
+        <v>1998248</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,153 +1601,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>20960</v>
+        <v>10242</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>27713</v>
+        <v>16979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>48673</v>
+        <v>27221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>919</v>
+        <v>679</v>
       </c>
       <c r="D11" s="7">
-        <v>996987</v>
+        <v>747381</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>914</v>
+        <v>690</v>
       </c>
       <c r="I11" s="7">
-        <v>1001260</v>
+        <v>760195</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1833</v>
+        <v>1369</v>
       </c>
       <c r="N11" s="7">
-        <v>1998247</v>
+        <v>1507576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,153 +1756,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>10242</v>
+        <v>21388</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>16979</v>
+        <v>28387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>27221</v>
+        <v>49775</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>679</v>
+        <v>891</v>
       </c>
       <c r="D14" s="7">
-        <v>747381</v>
+        <v>926351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>690</v>
+        <v>976</v>
       </c>
       <c r="I14" s="7">
-        <v>760195</v>
+        <v>1023514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1369</v>
+        <v>1867</v>
       </c>
       <c r="N14" s="7">
-        <v>1507576</v>
+        <v>1949865</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,132 +1911,132 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>21388</v>
+        <v>67982</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>85</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="7">
-        <v>27</v>
-      </c>
       <c r="I16" s="7">
-        <v>28387</v>
+        <v>94052</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="N16" s="7">
-        <v>49775</v>
+        <v>162034</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>891</v>
+        <v>3148</v>
       </c>
       <c r="D17" s="7">
-        <v>926351</v>
+        <v>3358797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>976</v>
+        <v>3211</v>
       </c>
       <c r="I17" s="7">
-        <v>1023514</v>
+        <v>3461046</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>97</v>
@@ -2150,19 +2045,19 @@
         <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>1867</v>
+        <v>6359</v>
       </c>
       <c r="N17" s="7">
-        <v>1949865</v>
+        <v>6819843</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,217 +2066,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6981877</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>61</v>
-      </c>
-      <c r="D19" s="7">
-        <v>67982</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7">
-        <v>85</v>
-      </c>
-      <c r="I19" s="7">
-        <v>94052</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="7">
-        <v>146</v>
-      </c>
-      <c r="N19" s="7">
-        <v>162034</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3148</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3358797</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3211</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3461046</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6359</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6819843</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>113</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2394,8 +2133,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C1E3F9-ABF1-4177-BE3C-77C7DF042BC5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9423288-022E-4B55-840D-42D476EBF28B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2411,7 +2150,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2512,100 +2251,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>1957</v>
+        <v>9055</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>3029</v>
+        <v>16331</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>4985</v>
+        <v>25386</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>642</v>
+      </c>
+      <c r="D5" s="7">
+        <v>665745</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="7">
-        <v>114589</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
-        <v>112</v>
+        <v>651</v>
       </c>
       <c r="I5" s="7">
-        <v>110331</v>
+        <v>656508</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
-        <v>223</v>
+        <v>1293</v>
       </c>
       <c r="N5" s="7">
-        <v>224921</v>
+        <v>1322253</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,153 +2353,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>7098</v>
+        <v>8120</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>13302</v>
+        <v>17191</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>20400</v>
+        <v>25311</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>531</v>
+        <v>942</v>
       </c>
       <c r="D8" s="7">
-        <v>551156</v>
+        <v>1014311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H8" s="7">
-        <v>539</v>
+        <v>962</v>
       </c>
       <c r="I8" s="7">
-        <v>546177</v>
+        <v>1025722</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M8" s="7">
-        <v>1070</v>
+        <v>1904</v>
       </c>
       <c r="N8" s="7">
-        <v>1097333</v>
+        <v>2040033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,153 +2508,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>8120</v>
+        <v>7181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="7">
+        <v>14</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16169</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="7">
+        <v>21</v>
+      </c>
+      <c r="N10" s="7">
+        <v>23349</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>17191</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M10" s="7">
-        <v>24</v>
-      </c>
-      <c r="N10" s="7">
-        <v>25311</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>942</v>
+        <v>689</v>
       </c>
       <c r="D11" s="7">
-        <v>1014311</v>
+        <v>752371</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H11" s="7">
-        <v>962</v>
+        <v>722</v>
       </c>
       <c r="I11" s="7">
-        <v>1025722</v>
+        <v>768842</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7">
-        <v>1904</v>
+        <v>1411</v>
       </c>
       <c r="N11" s="7">
-        <v>2040033</v>
+        <v>1521214</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,153 +2663,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>7181</v>
+        <v>11032</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="7">
+        <v>26</v>
+      </c>
+      <c r="I13" s="7">
+        <v>30775</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" s="7">
+        <v>38</v>
+      </c>
+      <c r="N13" s="7">
+        <v>41807</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16169</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M13" s="7">
-        <v>21</v>
-      </c>
-      <c r="N13" s="7">
-        <v>23349</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>689</v>
+        <v>920</v>
       </c>
       <c r="D14" s="7">
-        <v>752371</v>
+        <v>926535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="7">
+        <v>933</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1013004</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="7">
-        <v>722</v>
-      </c>
-      <c r="I14" s="7">
-        <v>768842</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1853</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1939539</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="M14" s="7">
-        <v>1411</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1521214</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,153 +2818,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>11032</v>
+        <v>35388</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="7">
+        <v>70</v>
+      </c>
+      <c r="I16" s="7">
+        <v>80465</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>108</v>
+      </c>
+      <c r="N16" s="7">
+        <v>115853</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H16" s="7">
-        <v>26</v>
-      </c>
-      <c r="I16" s="7">
-        <v>30775</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M16" s="7">
-        <v>38</v>
-      </c>
-      <c r="N16" s="7">
-        <v>41807</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>920</v>
+        <v>3193</v>
       </c>
       <c r="D17" s="7">
-        <v>926535</v>
+        <v>3358962</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3268</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3464077</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6461</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6823039</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H17" s="7">
-        <v>933</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1013004</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1853</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1939539</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,217 +2973,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>38</v>
-      </c>
-      <c r="D19" s="7">
-        <v>35388</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="7">
-        <v>70</v>
-      </c>
-      <c r="I19" s="7">
-        <v>80465</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M19" s="7">
-        <v>108</v>
-      </c>
-      <c r="N19" s="7">
-        <v>115853</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3193</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3358962</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3268</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3464077</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6461</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6823039</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>113</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3457,8 +3040,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF6E00A-4BAF-4C0B-962B-6FA3B7FE74C1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7A8EE2-1B47-425D-96CE-7BB37844778B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3474,7 +3057,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3575,100 +3158,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7">
-        <v>4460</v>
+        <v>29081</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I4" s="7">
-        <v>11743</v>
+        <v>44598</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="N4" s="7">
-        <v>16203</v>
+        <v>73679</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>109</v>
+        <v>675</v>
       </c>
       <c r="D5" s="7">
-        <v>97522</v>
+        <v>606360</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="H5" s="7">
-        <v>214</v>
+        <v>1124</v>
       </c>
       <c r="I5" s="7">
-        <v>118990</v>
+        <v>630141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M5" s="7">
-        <v>323</v>
+        <v>1799</v>
       </c>
       <c r="N5" s="7">
-        <v>216512</v>
+        <v>1236502</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,153 +3260,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674739</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310181</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7">
-        <v>26312</v>
+        <v>30291</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="H7" s="7">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7">
-        <v>36087</v>
+        <v>30742</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="N7" s="7">
-        <v>62399</v>
+        <v>61033</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>566</v>
+        <v>913</v>
       </c>
       <c r="D8" s="7">
-        <v>523511</v>
+        <v>1162573</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
-        <v>910</v>
+        <v>1452</v>
       </c>
       <c r="I8" s="7">
-        <v>555804</v>
+        <v>926262</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
-        <v>1476</v>
+        <v>2365</v>
       </c>
       <c r="N8" s="7">
-        <v>1079315</v>
+        <v>2088835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,153 +3415,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>591891</v>
+        <v>957004</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1141714</v>
+        <v>2149868</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>32198</v>
+        <v>16230</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>33820</v>
+        <v>32809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="N10" s="7">
-        <v>66018</v>
+        <v>49039</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>913</v>
+        <v>651</v>
       </c>
       <c r="D11" s="7">
-        <v>1007050</v>
+        <v>683810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="H11" s="7">
-        <v>1452</v>
+        <v>988</v>
       </c>
       <c r="I11" s="7">
-        <v>1024472</v>
+        <v>899910</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="M11" s="7">
-        <v>2365</v>
+        <v>1639</v>
       </c>
       <c r="N11" s="7">
-        <v>2031522</v>
+        <v>1583720</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,153 +3570,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>671</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>700040</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1058292</v>
+        <v>932719</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1717</v>
       </c>
       <c r="N12" s="7">
-        <v>2097540</v>
+        <v>1632759</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>17599</v>
+        <v>29842</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>247</v>
+        <v>105</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I13" s="7">
-        <v>36741</v>
+        <v>48642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="N13" s="7">
-        <v>54341</v>
+        <v>78485</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>651</v>
+        <v>961</v>
       </c>
       <c r="D14" s="7">
-        <v>706213</v>
+        <v>896989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7">
-        <v>988</v>
+        <v>1481</v>
       </c>
       <c r="I14" s="7">
-        <v>836910</v>
+        <v>1043272</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
-        <v>1639</v>
+        <v>2442</v>
       </c>
       <c r="N14" s="7">
-        <v>1543121</v>
+        <v>1940260</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,153 +3725,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>671</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>723812</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>873651</v>
+        <v>1091914</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1717</v>
+        <v>2566</v>
       </c>
       <c r="N15" s="7">
-        <v>1597462</v>
+        <v>2018745</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="D16" s="7">
-        <v>32008</v>
+        <v>105444</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>264</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="I16" s="7">
-        <v>55505</v>
+        <v>156792</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
-        <v>124</v>
+        <v>483</v>
       </c>
       <c r="N16" s="7">
-        <v>87514</v>
+        <v>262236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>961</v>
+        <v>3200</v>
       </c>
       <c r="D17" s="7">
-        <v>933395</v>
+        <v>3349732</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
-        <v>1481</v>
+        <v>5045</v>
       </c>
       <c r="I17" s="7">
-        <v>1091439</v>
+        <v>3499585</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
-        <v>2442</v>
+        <v>8245</v>
       </c>
       <c r="N17" s="7">
-        <v>2024833</v>
+        <v>6849317</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,217 +3880,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3371</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3455176</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5357</v>
       </c>
       <c r="I18" s="7">
-        <v>1146944</v>
+        <v>3656377</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2566</v>
+        <v>8728</v>
       </c>
       <c r="N18" s="7">
-        <v>2112347</v>
+        <v>7111553</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>171</v>
-      </c>
-      <c r="D19" s="7">
-        <v>112577</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H19" s="7">
-        <v>312</v>
-      </c>
-      <c r="I19" s="7">
-        <v>173896</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="M19" s="7">
-        <v>483</v>
-      </c>
-      <c r="N19" s="7">
-        <v>286474</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3200</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3267691</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5045</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3627614</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8245</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6895304</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3371</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3380268</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5357</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3801510</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8728</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7181778</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>113</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
